--- a/StoredScrapedData/Product_urls.xlsx
+++ b/StoredScrapedData/Product_urls.xlsx
@@ -17207,7 +17207,7 @@
         <v>1945</v>
       </c>
       <c r="F635" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="636" spans="1:6">
@@ -17227,7 +17227,7 @@
         <v>1945</v>
       </c>
       <c r="F636" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -17247,7 +17247,7 @@
         <v>1945</v>
       </c>
       <c r="F637" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="638" spans="1:6">
@@ -17267,7 +17267,7 @@
         <v>1945</v>
       </c>
       <c r="F638" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -17287,7 +17287,7 @@
         <v>1945</v>
       </c>
       <c r="F639" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -17307,7 +17307,7 @@
         <v>1945</v>
       </c>
       <c r="F640" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="641" spans="1:6">
@@ -18687,7 +18687,7 @@
         <v>1956</v>
       </c>
       <c r="F709" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -18707,7 +18707,7 @@
         <v>1956</v>
       </c>
       <c r="F710" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -18727,7 +18727,7 @@
         <v>1956</v>
       </c>
       <c r="F711" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -18747,7 +18747,7 @@
         <v>1956</v>
       </c>
       <c r="F712" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -18767,7 +18767,7 @@
         <v>1956</v>
       </c>
       <c r="F713" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="714" spans="1:6">

--- a/StoredScrapedData/Product_urls.xlsx
+++ b/StoredScrapedData/Product_urls.xlsx
@@ -18487,7 +18487,7 @@
         <v>1954</v>
       </c>
       <c r="F699" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -18507,7 +18507,7 @@
         <v>1954</v>
       </c>
       <c r="F700" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -18527,7 +18527,7 @@
         <v>1954</v>
       </c>
       <c r="F701" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -18547,7 +18547,7 @@
         <v>1954</v>
       </c>
       <c r="F702" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -18567,7 +18567,7 @@
         <v>1954</v>
       </c>
       <c r="F703" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -18587,7 +18587,7 @@
         <v>1954</v>
       </c>
       <c r="F704" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="705" spans="1:6">

--- a/StoredScrapedData/Product_urls.xlsx
+++ b/StoredScrapedData/Product_urls.xlsx
@@ -18487,7 +18487,7 @@
         <v>1954</v>
       </c>
       <c r="F699" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -18507,7 +18507,7 @@
         <v>1954</v>
       </c>
       <c r="F700" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="701" spans="1:6">
@@ -18527,7 +18527,7 @@
         <v>1954</v>
       </c>
       <c r="F701" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -18547,7 +18547,7 @@
         <v>1954</v>
       </c>
       <c r="F702" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="703" spans="1:6">
@@ -18567,7 +18567,7 @@
         <v>1954</v>
       </c>
       <c r="F703" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="704" spans="1:6">
@@ -18587,7 +18587,7 @@
         <v>1954</v>
       </c>
       <c r="F704" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="705" spans="1:6">
